--- a/pred_ohlcv/54_21/2020-01-15 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-188567927.5774289</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-188665212.9672289</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-188665112.9672289</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-188569098.9740289</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-188565346.3248289</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-188561171.3248289</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-188564921.1412289</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-188579914.5775289</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-188594096.0332289</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-188551496.6259289</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-188661077.1183289</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-188598238.5775289</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-188547841.6580289</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-188559970.0818289</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-188389872.4637289</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-188412195.2240289</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-188393807.7945289</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-188400957.1921289</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-188385271.3878289</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-188392920.3695289</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-188405165.3852289</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-188185092.9681289</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-187991656.8269289</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-188147995.5812289</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-188145104.5812289</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-188011230.3364289</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-188162912.0937289</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-188176468.0937289</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-188111556.0194289</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-186535919.0082289</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-186444665.8526289</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-186429005.3133289</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-186446835.2569289</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-186434470.7770289</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-186446470.7770289</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-186422470.7770289</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-186410470.7770289</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-186417627.7973289</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-186412049.9020289</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-186411842.3857289</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-186395537.1517486</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-186431527.6247486</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-186394521.4604486</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-186411875.6401486</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-186414265.8479486</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-186447222.4967486</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-186459852.4091486</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-186440568.3850486</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-186441919.8291486</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-186450585.8107486</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-186458764.2286486</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-186458764.2286486</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-186579477.1277486</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-186588911.8917486</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-186596783.5223486</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-186509790.2538486</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-186579139.9201486</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-186650233.2442486</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-186696130.2202486</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-188567927.5774289</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-188665212.9672289</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-188665112.9672289</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-188569098.9740289</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-188565346.3248289</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-188561171.3248289</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-188564921.1412289</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-188579914.5775289</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-188594096.0332289</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-188551496.6259289</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-188385271.3878289</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-188405165.3852289</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-188185092.9681289</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-188037922.5826289</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-188021098.9538289</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-187991656.8269289</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-188147995.5812289</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-188145104.5812289</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-188011230.3364289</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-188162912.0937289</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-188176468.0937289</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-188111556.0194289</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-187603365.9234289</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-187983113.3504289</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-187938941.8613289</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-187680925.9390289</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-187284349.4532289</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-186788489.2758289</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-186151300.7299289</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-186038084.2444289</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-186383463.6698289</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-186535919.0082289</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-186444665.8526289</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-186429005.3133289</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-186446835.2569289</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-186434470.7770289</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-186446470.7770289</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-186417627.7973289</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-186412049.9020289</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-186411842.3857289</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-186395537.1517486</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-186431527.6247486</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-186411875.6401486</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-186414265.8479486</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-186447222.4967486</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-186459852.4091486</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-186440568.3850486</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-186441919.8291486</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-186450585.8107486</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-186458764.2286486</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-186650233.2442486</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-186696130.2202486</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
